--- a/public/stocks.xlsx
+++ b/public/stocks.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L247"/>
+  <dimension ref="A1:L249"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,7 +442,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2273.5</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K2">
+        <v>1932.47</v>
       </c>
     </row>
     <row r="3">
@@ -546,7 +555,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1623.8</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K6">
+        <v>1380.23</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +590,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2045</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K7">
+        <v>1675.25</v>
       </c>
     </row>
     <row r="8">
@@ -650,7 +677,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1642</v>
+      </c>
+      <c r="J10" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K10">
+        <v>1395.7</v>
       </c>
     </row>
     <row r="11">
@@ -682,10 +718,10 @@
         <v>1517.5</v>
       </c>
       <c r="J11" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K11">
-        <v>1289.88</v>
+        <v>1140.88</v>
       </c>
     </row>
     <row r="12">
@@ -711,7 +747,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2277.9</v>
+      </c>
+      <c r="J12" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K12">
+        <v>1936.21</v>
       </c>
     </row>
     <row r="13">
@@ -812,10 +857,19 @@
         <v>MICROFINANCE</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1689</v>
+      </c>
+      <c r="J16" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K16">
+        <v>1435.65</v>
       </c>
     </row>
     <row r="17">
@@ -951,7 +1005,7 @@
         <v>1040</v>
       </c>
       <c r="J21" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K21">
         <v>884</v>
@@ -980,7 +1034,16 @@
         <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1061</v>
+      </c>
+      <c r="J22" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K22">
+        <v>901.85</v>
       </c>
     </row>
     <row r="23">
@@ -1012,7 +1075,7 @@
         <v>825</v>
       </c>
       <c r="J23" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K23">
         <v>701.25</v>
@@ -1220,7 +1283,7 @@
         <v>MICROFINANCE</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1463,7 +1526,7 @@
         <v>1300</v>
       </c>
       <c r="J40" t="str">
-        <v>2025-05-07</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K40">
         <v>1105</v>
@@ -1602,7 +1665,7 @@
         <v>638</v>
       </c>
       <c r="J45" t="str">
-        <v>2025-05-07</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K45">
         <v>542.3</v>
@@ -1891,16 +1954,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>670</v>
-      </c>
-      <c r="J56" t="str">
-        <v>2025-05-09</v>
-      </c>
-      <c r="K56">
-        <v>569.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1926,7 +1980,16 @@
         <v>0</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>590</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K57">
+        <v>501.5</v>
       </c>
     </row>
     <row r="58">
@@ -2394,7 +2457,16 @@
         <v>0</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>590</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K75">
+        <v>501.5</v>
       </c>
     </row>
     <row r="76">
@@ -2426,10 +2498,10 @@
         <v>516</v>
       </c>
       <c r="J76" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K76">
-        <v>438.6</v>
+        <v>430.6</v>
       </c>
     </row>
     <row r="77">
@@ -2504,10 +2576,19 @@
         <v>HYDROPOWER</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>364</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K79">
+        <v>309.4</v>
       </c>
     </row>
     <row r="80">
@@ -2559,16 +2640,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>495</v>
-      </c>
-      <c r="J81" t="str">
-        <v>2025-05-07</v>
-      </c>
-      <c r="K81">
-        <v>420.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2597,13 +2669,13 @@
         <v>1</v>
       </c>
       <c r="I82">
-        <v>346</v>
+        <v>408.4</v>
       </c>
       <c r="J82" t="str">
-        <v>2025-05-21</v>
+        <v>2025-07-14</v>
       </c>
       <c r="K82">
-        <v>294.1</v>
+        <v>286.14</v>
       </c>
     </row>
     <row r="83">
@@ -2661,10 +2733,10 @@
         <v>472.2</v>
       </c>
       <c r="J84" t="str">
-        <v>2025-05-07</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K84">
-        <v>401.37</v>
+        <v>355.37</v>
       </c>
     </row>
     <row r="85">
@@ -2742,16 +2814,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>510</v>
-      </c>
-      <c r="J87" t="str">
-        <v>2025-05-07</v>
-      </c>
-      <c r="K87">
-        <v>433.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2809,7 +2872,7 @@
         <v>525</v>
       </c>
       <c r="J89" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K89">
         <v>446.25</v>
@@ -2844,10 +2907,10 @@
         <v>438</v>
       </c>
       <c r="J90" t="str">
-        <v>2025-05-07</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K90">
-        <v>372.3</v>
+        <v>400.3</v>
       </c>
     </row>
     <row r="91">
@@ -2879,7 +2942,7 @@
         <v>223.7</v>
       </c>
       <c r="J91" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K91">
         <v>190.14</v>
@@ -2911,13 +2974,13 @@
         <v>1</v>
       </c>
       <c r="I92">
-        <v>367.5</v>
+        <v>333.9</v>
       </c>
       <c r="J92" t="str">
-        <v>2025-05-09</v>
+        <v>2025-07-14</v>
       </c>
       <c r="K92">
-        <v>312.38</v>
+        <v>283.81</v>
       </c>
     </row>
     <row r="93">
@@ -2975,7 +3038,7 @@
         <v>311</v>
       </c>
       <c r="J94" t="str">
-        <v>2025-05-21</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K94">
         <v>264.35</v>
@@ -3030,7 +3093,16 @@
         <v>1</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>526.9</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2025-07-25</v>
+      </c>
+      <c r="K96">
+        <v>443.7</v>
       </c>
     </row>
     <row r="97">
@@ -3062,7 +3134,7 @@
         <v>364</v>
       </c>
       <c r="J97" t="str">
-        <v>2025-05-21</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K97">
         <v>309.4</v>
@@ -3097,10 +3169,10 @@
         <v>390</v>
       </c>
       <c r="J98" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K98">
-        <v>331.5</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="99">
@@ -3181,13 +3253,13 @@
         <v>1</v>
       </c>
       <c r="I101">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="J101" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K101">
-        <v>289</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102">
@@ -3239,7 +3311,16 @@
         <v>0</v>
       </c>
       <c r="H103" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>539</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2025-07-25</v>
+      </c>
+      <c r="K103">
+        <v>450.84</v>
       </c>
     </row>
     <row r="104">
@@ -3349,7 +3430,7 @@
         <v>311</v>
       </c>
       <c r="J107" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K107">
         <v>264.35</v>
@@ -3427,10 +3508,19 @@
         <v>HYDROPOWER</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>350</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2025-07-25T02:18:06.713Z</v>
+      </c>
+      <c r="K110">
+        <v>325.55</v>
       </c>
     </row>
     <row r="111">
@@ -3566,7 +3656,7 @@
         <v>285</v>
       </c>
       <c r="J115" t="str">
-        <v>2025-05-08</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K115">
         <v>242.25</v>
@@ -3592,7 +3682,7 @@
         <v>HYDROPOWER</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
@@ -3601,7 +3691,7 @@
         <v>242</v>
       </c>
       <c r="J116" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K116">
         <v>205.7</v>
@@ -3682,16 +3772,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="b">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>286.4</v>
-      </c>
-      <c r="J119" t="str">
-        <v>2025-05-08</v>
-      </c>
-      <c r="K119">
-        <v>243.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3740,10 +3821,19 @@
         <v>HYDROPOWER</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>257</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K121">
+        <v>218.45</v>
       </c>
     </row>
     <row r="122">
@@ -3769,16 +3859,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="b">
-        <v>1</v>
-      </c>
-      <c r="I122">
-        <v>224</v>
-      </c>
-      <c r="J122" t="str">
-        <v>2025-05-08</v>
-      </c>
-      <c r="K122">
-        <v>190.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3879,7 +3960,7 @@
         <v>HYDROPOWER</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="b">
         <v>0</v>
@@ -4018,10 +4099,10 @@
         <v>335</v>
       </c>
       <c r="J131" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K131">
-        <v>284.75</v>
+        <v>300.75</v>
       </c>
     </row>
     <row r="132">
@@ -4050,13 +4131,13 @@
         <v>1</v>
       </c>
       <c r="I132">
-        <v>368.78</v>
+        <v>200.78</v>
       </c>
       <c r="J132" t="str">
-        <v>2025-05-07</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K132">
-        <v>313.46</v>
+        <v>340.46</v>
       </c>
     </row>
     <row r="133">
@@ -4166,7 +4247,7 @@
         <v>235</v>
       </c>
       <c r="J136" t="str">
-        <v>2025-05-07</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K136">
         <v>199.75</v>
@@ -4201,7 +4282,7 @@
         <v>328</v>
       </c>
       <c r="J137" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K137">
         <v>278.8</v>
@@ -4314,10 +4395,10 @@
         <v>199.9</v>
       </c>
       <c r="J141" t="str">
-        <v>2025-05-07</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K141">
-        <v>169.91</v>
+        <v>190.91</v>
       </c>
     </row>
     <row r="142">
@@ -4505,7 +4586,7 @@
         <v>566</v>
       </c>
       <c r="J148" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K148">
         <v>481.1</v>
@@ -4664,7 +4745,16 @@
         <v>0</v>
       </c>
       <c r="H154" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>694</v>
+      </c>
+      <c r="J154" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K154">
+        <v>537.2</v>
       </c>
     </row>
     <row r="155">
@@ -4696,7 +4786,7 @@
         <v>640</v>
       </c>
       <c r="J155" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K155">
         <v>544</v>
@@ -4725,16 +4815,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="b">
-        <v>1</v>
-      </c>
-      <c r="I156">
-        <v>488</v>
-      </c>
-      <c r="J156" t="str">
-        <v>2025-05-09</v>
-      </c>
-      <c r="K156">
-        <v>414.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4763,13 +4844,13 @@
         <v>1</v>
       </c>
       <c r="I157">
-        <v>506.9</v>
+        <v>490</v>
       </c>
       <c r="J157" t="str">
-        <v>2025-05-08</v>
+        <v>2025-07-25</v>
       </c>
       <c r="K157">
-        <v>430.86</v>
+        <v>397.8</v>
       </c>
     </row>
     <row r="158">
@@ -4801,7 +4882,7 @@
         <v>484</v>
       </c>
       <c r="J158" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K158">
         <v>411.4</v>
@@ -4882,16 +4963,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="b">
-        <v>1</v>
-      </c>
-      <c r="I161">
-        <v>394</v>
-      </c>
-      <c r="J161" t="str">
-        <v>2025-05-09</v>
-      </c>
-      <c r="K161">
-        <v>334.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -4969,7 +5041,16 @@
         <v>0</v>
       </c>
       <c r="H164" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>503.9</v>
+      </c>
+      <c r="J164" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K164">
+        <v>428.31</v>
       </c>
     </row>
     <row r="165">
@@ -4995,7 +5076,16 @@
         <v>0</v>
       </c>
       <c r="H165" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>529</v>
+      </c>
+      <c r="J165" t="str">
+        <v>2025-07-14</v>
+      </c>
+      <c r="K165">
+        <v>449.65</v>
       </c>
     </row>
     <row r="166">
@@ -5027,7 +5117,7 @@
         <v>490</v>
       </c>
       <c r="J166" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K166">
         <v>416.5</v>
@@ -5443,7 +5533,7 @@
         <v>MANUFACTURING</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
@@ -5576,16 +5666,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="b">
-        <v>1</v>
-      </c>
-      <c r="I187">
-        <v>457</v>
-      </c>
-      <c r="J187" t="str">
-        <v>2025-05-09</v>
-      </c>
-      <c r="K187">
-        <v>388.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5975,16 +6056,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="b">
-        <v>1</v>
-      </c>
-      <c r="I202">
-        <v>406.7</v>
-      </c>
-      <c r="J202" t="str">
-        <v>2025-05-08</v>
-      </c>
-      <c r="K202">
-        <v>345.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -6007,7 +6079,7 @@
         <v>DEVELOPMENT</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
@@ -6036,16 +6108,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="b">
-        <v>1</v>
-      </c>
-      <c r="I204">
-        <v>370</v>
-      </c>
-      <c r="J204" t="str">
-        <v>2025-05-07</v>
-      </c>
-      <c r="K204">
-        <v>314.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -6461,16 +6524,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="b">
-        <v>1</v>
-      </c>
-      <c r="I220">
-        <v>213</v>
-      </c>
-      <c r="J220" t="str">
-        <v>2025-05-07</v>
-      </c>
-      <c r="K220">
-        <v>181.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -6632,7 +6686,7 @@
         <v>480</v>
       </c>
       <c r="J226" t="str">
-        <v>2025-05-07</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K226">
         <v>408</v>
@@ -6823,7 +6877,7 @@
         <v>406</v>
       </c>
       <c r="J233" t="str">
-        <v>2025-05-09</v>
+        <v>2025-06-19</v>
       </c>
       <c r="K233">
         <v>345.1</v>
@@ -7114,9 +7168,6 @@
       <c r="H244" t="b">
         <v>0</v>
       </c>
-      <c r="L244" t="str">
-        <v>2025-05-12T03:02:42.981Z</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
@@ -7143,9 +7194,6 @@
       <c r="H245" t="b">
         <v>0</v>
       </c>
-      <c r="L245" t="str">
-        <v>2025-05-25T11:23:00.792Z</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
@@ -7172,9 +7220,6 @@
       <c r="H246" t="b">
         <v>0</v>
       </c>
-      <c r="L246" t="str">
-        <v>2025-05-25T11:24:13.770Z</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
@@ -7201,20 +7246,75 @@
       <c r="H247" t="b">
         <v>0</v>
       </c>
-      <c r="L247" t="str">
-        <v>2015-06-02T15:32:33.781Z</v>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>TTL</v>
+      </c>
+      <c r="B248">
+        <v>400</v>
+      </c>
+      <c r="C248">
+        <v>500</v>
+      </c>
+      <c r="D248">
+        <v>600</v>
+      </c>
+      <c r="E248">
+        <v>700</v>
+      </c>
+      <c r="F248" t="str">
+        <v>OTHERS</v>
+      </c>
+      <c r="G248" t="b">
+        <v>0</v>
+      </c>
+      <c r="H248" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" t="str">
+        <v>2025-07-20T10:25:13.270Z</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>SANVI</v>
+      </c>
+      <c r="B249">
+        <v>300</v>
+      </c>
+      <c r="C249">
+        <v>400</v>
+      </c>
+      <c r="D249">
+        <v>500</v>
+      </c>
+      <c r="E249">
+        <v>900</v>
+      </c>
+      <c r="F249" t="str">
+        <v>HYDROPOWER</v>
+      </c>
+      <c r="G249" t="b">
+        <v>0</v>
+      </c>
+      <c r="H249" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" t="str">
+        <v>2025-07-20T10:25:38.664Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L247"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L249"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7901,9 +8001,240 @@
         <v>2025-05-07T09:42:31.952Z</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>GLBSL</v>
+      </c>
+      <c r="B63" t="str">
+        <v>support2</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2025-07-02T13:36:03.613Z</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>MLBS</v>
+      </c>
+      <c r="B64" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2025-07-02T13:36:03.614Z</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>SHLB</v>
+      </c>
+      <c r="B65" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C65" t="str">
+        <v>2025-07-02T13:36:03.614Z</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>NMFBS</v>
+      </c>
+      <c r="B66" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2025-07-02T13:36:03.615Z</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>EHPL</v>
+      </c>
+      <c r="B67" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2025-07-02T13:36:03.616Z</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>MANDU</v>
+      </c>
+      <c r="B68" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2025-07-02T13:36:03.616Z</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>MKJC</v>
+      </c>
+      <c r="B69" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2025-07-02T13:36:03.617Z</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>NHPC</v>
+      </c>
+      <c r="B70" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2025-07-02T13:36:03.617Z</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>NLG</v>
+      </c>
+      <c r="B71" t="str">
+        <v>support2</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2025-07-02T13:36:03.618Z</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>CFCL</v>
+      </c>
+      <c r="B72" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2025-07-02T13:36:03.619Z</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>SHIVM</v>
+      </c>
+      <c r="B73" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2025-07-02T13:36:03.619Z</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>GBBL</v>
+      </c>
+      <c r="B74" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2025-07-02T13:36:03.620Z</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>SNLI</v>
+      </c>
+      <c r="B75" t="str">
+        <v>support2</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2025-07-02T13:36:03.621Z</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>NADEP</v>
+      </c>
+      <c r="B76" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2025-07-20T10:19:35.208Z</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>HHL</v>
+      </c>
+      <c r="B77" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2025-07-20T10:19:35.209Z</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>NLG</v>
+      </c>
+      <c r="B78" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2025-07-20T10:19:35.209Z</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>JFL</v>
+      </c>
+      <c r="B79" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2025-07-20T10:19:35.209Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>HBL</v>
+      </c>
+      <c r="B80" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2025-07-20T10:19:35.209Z</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>TRH</v>
+      </c>
+      <c r="B81" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2025-07-25T02:17:57.727Z</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>SRLI</v>
+      </c>
+      <c r="B82" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2025-07-25T02:17:57.728Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>OMPL</v>
+      </c>
+      <c r="B83" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2025-07-29T15:23:55.610Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C62"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C83"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/stocks.xlsx
+++ b/public/stocks.xlsx
@@ -4,7 +4,8 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
-    <sheet name="SupportHistory" sheetId="2" r:id="rId2"/>
+    <sheet name="IpoRights" sheetId="2" r:id="rId2"/>
+    <sheet name="SupportHistory" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -427,7 +428,7 @@
         <v>3000</v>
       </c>
       <c r="C2">
-        <v>2238.1919427308912</v>
+        <v>2381.7410188984763</v>
       </c>
       <c r="D2">
         <v>1982.2649352752774</v>
@@ -462,7 +463,7 @@
         <v>2563.9076098520663</v>
       </c>
       <c r="C3">
-        <v>1920</v>
+        <v>2059.7966540820335</v>
       </c>
       <c r="D3">
         <v>1344</v>
@@ -485,7 +486,7 @@
         <v>SMB</v>
       </c>
       <c r="B4">
-        <v>2550</v>
+        <v>2249.4806641204573</v>
       </c>
       <c r="C4">
         <v>1728.2687236745367</v>
@@ -514,7 +515,7 @@
         <v>2500</v>
       </c>
       <c r="C5">
-        <v>2106.336354129086</v>
+        <v>1978.367660095618</v>
       </c>
       <c r="D5">
         <v>1400</v>
@@ -537,7 +538,7 @@
         <v>MLBS</v>
       </c>
       <c r="B6">
-        <v>1450.2923426893208</v>
+        <v>1439.8543494200653</v>
       </c>
       <c r="C6">
         <v>1328.528464611242</v>
@@ -572,7 +573,7 @@
         <v>SHLB</v>
       </c>
       <c r="B7">
-        <v>1777.318099867861</v>
+        <v>1811.604536106445</v>
       </c>
       <c r="C7">
         <v>1376</v>
@@ -607,7 +608,7 @@
         <v>DLBS</v>
       </c>
       <c r="B8">
-        <v>1284.7185934279873</v>
+        <v>1397.6577843731818</v>
       </c>
       <c r="C8">
         <v>987.0890136202269</v>
@@ -633,7 +634,7 @@
         <v>SMFBS</v>
       </c>
       <c r="B9">
-        <v>1421.587561819961</v>
+        <v>1585.844369049101</v>
       </c>
       <c r="C9">
         <v>1120</v>
@@ -659,7 +660,7 @@
         <v>GMFBS</v>
       </c>
       <c r="B10">
-        <v>1480.0876398555952</v>
+        <v>1525.1132127692938</v>
       </c>
       <c r="C10">
         <v>1208.019409357554</v>
@@ -697,7 +698,7 @@
         <v>1800</v>
       </c>
       <c r="C11">
-        <v>1277.0183590987226</v>
+        <v>1300.5039955119314</v>
       </c>
       <c r="D11">
         <v>1008</v>
@@ -729,7 +730,7 @@
         <v>UNLB</v>
       </c>
       <c r="B12">
-        <v>1936.0878876169886</v>
+        <v>2189.64948564586</v>
       </c>
       <c r="C12">
         <v>1580.5978358128787</v>
@@ -764,7 +765,7 @@
         <v>USLB</v>
       </c>
       <c r="B13">
-        <v>1562.7215924868165</v>
+        <v>1786.3847687049931</v>
       </c>
       <c r="C13">
         <v>1072</v>
@@ -790,7 +791,7 @@
         <v>JSLBB</v>
       </c>
       <c r="B14">
-        <v>1450</v>
+        <v>1369.7206440300556</v>
       </c>
       <c r="C14">
         <v>1280.8062436213104</v>
@@ -819,7 +820,7 @@
         <v>1950</v>
       </c>
       <c r="C15">
-        <v>1676.7431596767258</v>
+        <v>1643.6668875697364</v>
       </c>
       <c r="D15">
         <v>1064</v>
@@ -842,7 +843,7 @@
         <v>CYCL</v>
       </c>
       <c r="B16">
-        <v>1502.4676564998483</v>
+        <v>1562.2546614338494</v>
       </c>
       <c r="C16">
         <v>1120</v>
@@ -877,7 +878,7 @@
         <v>MLBSL</v>
       </c>
       <c r="B17">
-        <v>2013.8999267720876</v>
+        <v>2074.2447902494023</v>
       </c>
       <c r="C17">
         <v>1520</v>
@@ -903,7 +904,7 @@
         <v>MLBBL</v>
       </c>
       <c r="B18">
-        <v>1343.522861585726</v>
+        <v>1453.724251215561</v>
       </c>
       <c r="C18">
         <v>994.5473542155197</v>
@@ -929,7 +930,7 @@
         <v>MSLB</v>
       </c>
       <c r="B19">
-        <v>1320.7484053854744</v>
+        <v>1328.1255879656374</v>
       </c>
       <c r="C19">
         <v>880</v>
@@ -955,7 +956,7 @@
         <v>AVYAN</v>
       </c>
       <c r="B20">
-        <v>910.2237593106889</v>
+        <v>970.4196629491734</v>
       </c>
       <c r="C20">
         <v>680</v>
@@ -981,7 +982,7 @@
         <v>LLBS</v>
       </c>
       <c r="B21">
-        <v>1040.13718439671</v>
+        <v>1069.6367778468489</v>
       </c>
       <c r="C21">
         <v>866.9538333834621</v>
@@ -1016,7 +1017,7 @@
         <v>KMCDB</v>
       </c>
       <c r="B22">
-        <v>907.1937299066396</v>
+        <v>1013.1511089183986</v>
       </c>
       <c r="C22">
         <v>768.2843192473887</v>
@@ -1054,7 +1055,7 @@
         <v>910</v>
       </c>
       <c r="C23">
-        <v>800</v>
+        <v>838.9398731008527</v>
       </c>
       <c r="D23">
         <v>509.6</v>
@@ -1086,7 +1087,7 @@
         <v>ACLBSL</v>
       </c>
       <c r="B24">
-        <v>956.8495098474228</v>
+        <v>1014.4337455150155</v>
       </c>
       <c r="C24">
         <v>756.283178727095</v>
@@ -1112,7 +1113,7 @@
         <v>HLBSL</v>
       </c>
       <c r="B25">
-        <v>905.8454077035364</v>
+        <v>940.193576447119</v>
       </c>
       <c r="C25">
         <v>713.4826393616156</v>
@@ -1138,7 +1139,7 @@
         <v>ILBS</v>
       </c>
       <c r="B26">
-        <v>920</v>
+        <v>1010.1990594057785</v>
       </c>
       <c r="C26">
         <v>798.505556618492</v>
@@ -1164,7 +1165,7 @@
         <v>SMATA</v>
       </c>
       <c r="B27">
-        <v>745.1205244522027</v>
+        <v>891.0909276280511</v>
       </c>
       <c r="C27">
         <v>653.4460266842731</v>
@@ -1190,7 +1191,7 @@
         <v>GILB</v>
       </c>
       <c r="B28">
-        <v>1220.05191067991</v>
+        <v>1229.1936589372865</v>
       </c>
       <c r="C28">
         <v>966.8190261750462</v>
@@ -1216,7 +1217,7 @@
         <v>MATRI</v>
       </c>
       <c r="B29">
-        <v>1159.86814768203</v>
+        <v>1153.493126148536</v>
       </c>
       <c r="C29">
         <v>920</v>
@@ -1242,7 +1243,7 @@
         <v>VLBS</v>
       </c>
       <c r="B30">
-        <v>837.4933286933626</v>
+        <v>831.9006494863378</v>
       </c>
       <c r="C30">
         <v>672.0882741365056</v>
@@ -1268,7 +1269,7 @@
         <v>SMPDA</v>
       </c>
       <c r="B31">
-        <v>886.1322969037832</v>
+        <v>924.1562069480592</v>
       </c>
       <c r="C31">
         <v>720</v>
@@ -1294,7 +1295,7 @@
         <v>ALBSL</v>
       </c>
       <c r="B32">
-        <v>799.4786186660341</v>
+        <v>879.8801670665248</v>
       </c>
       <c r="C32">
         <v>624</v>
@@ -1320,7 +1321,7 @@
         <v>NMBMF</v>
       </c>
       <c r="B33">
-        <v>682.1482170456397</v>
+        <v>689.5769988553646</v>
       </c>
       <c r="C33">
         <v>536</v>
@@ -1346,7 +1347,7 @@
         <v>GBLBS</v>
       </c>
       <c r="B34">
-        <v>748.8550843361135</v>
+        <v>773.7141578396584</v>
       </c>
       <c r="C34">
         <v>629.7738868844954</v>
@@ -1372,7 +1373,7 @@
         <v>SLBBL</v>
       </c>
       <c r="B35">
-        <v>880</v>
+        <v>901.1371346083879</v>
       </c>
       <c r="C35">
         <v>740.6948851845608</v>
@@ -1398,7 +1399,7 @@
         <v>NMFBS</v>
       </c>
       <c r="B36">
-        <v>1193.620370224371</v>
+        <v>1304.1883743544715</v>
       </c>
       <c r="C36">
         <v>904</v>
@@ -1424,7 +1425,7 @@
         <v>FOWAD</v>
       </c>
       <c r="B37">
-        <v>1200</v>
+        <v>1161.6246985411758</v>
       </c>
       <c r="C37">
         <v>1067.2068910148766</v>
@@ -1450,7 +1451,7 @@
         <v>SWBBL</v>
       </c>
       <c r="B38">
-        <v>840</v>
+        <v>845.2862263341104</v>
       </c>
       <c r="C38">
         <v>774.274080017918</v>
@@ -1476,7 +1477,7 @@
         <v>RSDC</v>
       </c>
       <c r="B39">
-        <v>686.5910657033022</v>
+        <v>690.2227492030717</v>
       </c>
       <c r="C39">
         <v>585.3532040031477</v>
@@ -1502,7 +1503,7 @@
         <v>JBLB</v>
       </c>
       <c r="B40">
-        <v>1332.8230517388233</v>
+        <v>1330.2560661332893</v>
       </c>
       <c r="C40">
         <v>1104</v>
@@ -1537,7 +1538,7 @@
         <v>MERO</v>
       </c>
       <c r="B41">
-        <v>667.9538952975878</v>
+        <v>748.0774121944426</v>
       </c>
       <c r="C41">
         <v>528</v>
@@ -1563,7 +1564,7 @@
         <v>SWMF</v>
       </c>
       <c r="B42">
-        <v>719.5228808687723</v>
+        <v>745.8699749915643</v>
       </c>
       <c r="C42">
         <v>655.5979097665286</v>
@@ -1589,7 +1590,7 @@
         <v>NICLBSL</v>
       </c>
       <c r="B43">
-        <v>592.9758325286477</v>
+        <v>651.3366310148687</v>
       </c>
       <c r="C43">
         <v>504</v>
@@ -1615,7 +1616,7 @@
         <v>FMDBL</v>
       </c>
       <c r="B44">
-        <v>710.9591190349674</v>
+        <v>768.7314863670482</v>
       </c>
       <c r="C44">
         <v>592</v>
@@ -1641,7 +1642,7 @@
         <v>NMLBBL</v>
       </c>
       <c r="B45">
-        <v>594.5423278601228</v>
+        <v>671.7991953073918</v>
       </c>
       <c r="C45">
         <v>496</v>
@@ -1676,7 +1677,7 @@
         <v>DDBL</v>
       </c>
       <c r="B46">
-        <v>748.5161990845573</v>
+        <v>809.1419109247876</v>
       </c>
       <c r="C46">
         <v>600</v>
@@ -1702,7 +1703,7 @@
         <v>NUBL</v>
       </c>
       <c r="B47">
-        <v>671.6253502459685</v>
+        <v>688.9247212750771</v>
       </c>
       <c r="C47">
         <v>560</v>
@@ -1728,7 +1729,7 @@
         <v>SKBBL</v>
       </c>
       <c r="B48">
-        <v>794.2202638888186</v>
+        <v>839.6375633118708</v>
       </c>
       <c r="C48">
         <v>624</v>
@@ -1754,7 +1755,7 @@
         <v>ANLB</v>
       </c>
       <c r="B49">
-        <v>4800.708214849843</v>
+        <v>4977.488126783053</v>
       </c>
       <c r="C49">
         <v>3200</v>
@@ -1780,7 +1781,7 @@
         <v>ULBSL</v>
       </c>
       <c r="B50">
-        <v>3000</v>
+        <v>3115.580892514336</v>
       </c>
       <c r="C50">
         <v>2257.1642038109544</v>
@@ -1806,7 +1807,7 @@
         <v>CBBL</v>
       </c>
       <c r="B51">
-        <v>842.2782139290885</v>
+        <v>914.2881601206557</v>
       </c>
       <c r="C51">
         <v>664</v>
@@ -1835,7 +1836,7 @@
         <v>2200</v>
       </c>
       <c r="C52">
-        <v>1494.2395463726507</v>
+        <v>1494.0108618298216</v>
       </c>
       <c r="D52">
         <v>1232</v>
@@ -1861,7 +1862,7 @@
         <v>750</v>
       </c>
       <c r="C53">
-        <v>686.2064914383764</v>
+        <v>687.3664304883918</v>
       </c>
       <c r="D53">
         <v>420</v>
@@ -1884,7 +1885,7 @@
         <v>SPL</v>
       </c>
       <c r="B54">
-        <v>673.3519195286868</v>
+        <v>851.5386293537421</v>
       </c>
       <c r="C54">
         <v>480</v>
@@ -1910,7 +1911,7 @@
         <v>BHPL</v>
       </c>
       <c r="B55">
-        <v>721.9618283406774</v>
+        <v>698.4583363545931</v>
       </c>
       <c r="C55">
         <v>449.6</v>
@@ -1936,7 +1937,7 @@
         <v>USHL</v>
       </c>
       <c r="B56">
-        <v>571.3852302813458</v>
+        <v>597.4112051149184</v>
       </c>
       <c r="C56">
         <v>449.6</v>
@@ -1965,7 +1966,7 @@
         <v>535.2600145633729</v>
       </c>
       <c r="C57">
-        <v>425.6</v>
+        <v>447.19291673355673</v>
       </c>
       <c r="D57">
         <v>297.92</v>
@@ -2000,7 +2001,7 @@
         <v>623.3559454687883</v>
       </c>
       <c r="C58">
-        <v>449.6</v>
+        <v>484.1856841523595</v>
       </c>
       <c r="D58">
         <v>314.72</v>
@@ -2023,7 +2024,7 @@
         <v>TSHL</v>
       </c>
       <c r="B59">
-        <v>632.4919004802331</v>
+        <v>790.5660124065746</v>
       </c>
       <c r="C59">
         <v>517.5004208642675</v>
@@ -2049,7 +2050,7 @@
         <v>MSHL</v>
       </c>
       <c r="B60">
-        <v>675.6579579278898</v>
+        <v>680.969468875386</v>
       </c>
       <c r="C60">
         <v>540</v>
@@ -2075,7 +2076,7 @@
         <v>RAWA</v>
       </c>
       <c r="B61">
-        <v>626.5592337981961</v>
+        <v>622.2058338727713</v>
       </c>
       <c r="C61">
         <v>449.6</v>
@@ -2104,7 +2105,7 @@
         <v>660.6819741196163</v>
       </c>
       <c r="C62">
-        <v>498.2766261993946</v>
+        <v>497.82667420869296</v>
       </c>
       <c r="D62">
         <v>252</v>
@@ -2127,7 +2128,7 @@
         <v>BGWT</v>
       </c>
       <c r="B63">
-        <v>709.7015852361121</v>
+        <v>712.0924716511169</v>
       </c>
       <c r="C63">
         <v>516.8</v>
@@ -2153,7 +2154,7 @@
         <v>CKHL</v>
       </c>
       <c r="B64">
-        <v>617.1412637647182</v>
+        <v>614.5306686286656</v>
       </c>
       <c r="C64">
         <v>372</v>
@@ -2179,7 +2180,7 @@
         <v>MCHL</v>
       </c>
       <c r="B65">
-        <v>488.2530167059237</v>
+        <v>475.54265966202206</v>
       </c>
       <c r="C65">
         <v>281.6</v>
@@ -2205,7 +2206,7 @@
         <v>SIKLES</v>
       </c>
       <c r="B66">
-        <v>788.2759744598917</v>
+        <v>828.311189898474</v>
       </c>
       <c r="C66">
         <v>576</v>
@@ -2234,7 +2235,7 @@
         <v>585</v>
       </c>
       <c r="C67">
-        <v>445.74856597802744</v>
+        <v>452.96856095017637</v>
       </c>
       <c r="D67">
         <v>327.6</v>
@@ -2257,7 +2258,7 @@
         <v>MANDU</v>
       </c>
       <c r="B68">
-        <v>846.8417621063949</v>
+        <v>854.415071153611</v>
       </c>
       <c r="C68">
         <v>492</v>
@@ -2283,7 +2284,7 @@
         <v>IHL</v>
       </c>
       <c r="B69">
-        <v>514.7221424140414</v>
+        <v>483.97560565301404</v>
       </c>
       <c r="C69">
         <v>240</v>
@@ -2309,7 +2310,7 @@
         <v>UHEWA</v>
       </c>
       <c r="B70">
-        <v>506.01800473269464</v>
+        <v>503.6365203296025</v>
       </c>
       <c r="C70">
         <v>403.2</v>
@@ -2335,7 +2336,7 @@
         <v>MKHL</v>
       </c>
       <c r="B71">
-        <v>583.3220348964812</v>
+        <v>833.5724827806571</v>
       </c>
       <c r="C71">
         <v>372</v>
@@ -2361,7 +2362,7 @@
         <v>MMKJL</v>
       </c>
       <c r="B72">
-        <v>503.19820100431684</v>
+        <v>504.3924131699934</v>
       </c>
       <c r="C72">
         <v>396</v>
@@ -2387,7 +2388,7 @@
         <v>BEDC</v>
       </c>
       <c r="B73">
-        <v>547.9352990206874</v>
+        <v>555.810530862951</v>
       </c>
       <c r="C73">
         <v>336</v>
@@ -2413,7 +2414,7 @@
         <v>MAKAR</v>
       </c>
       <c r="B74">
-        <v>636.3315871604892</v>
+        <v>521.1030608090872</v>
       </c>
       <c r="C74">
         <v>348</v>
@@ -2439,7 +2440,7 @@
         <v>DOLTI</v>
       </c>
       <c r="B75">
-        <v>474.0321490768144</v>
+        <v>514.6513881884072</v>
       </c>
       <c r="C75">
         <v>360</v>
@@ -2474,7 +2475,7 @@
         <v>BHDC</v>
       </c>
       <c r="B76">
-        <v>520</v>
+        <v>528.4262864094189</v>
       </c>
       <c r="C76">
         <v>486.80391345507786</v>
@@ -2512,7 +2513,7 @@
         <v>569.8626343069329</v>
       </c>
       <c r="C77">
-        <v>496.5161540806427</v>
+        <v>506.1898064952316</v>
       </c>
       <c r="D77">
         <v>336</v>
@@ -2538,7 +2539,7 @@
         <v>493.6683392467045</v>
       </c>
       <c r="C78">
-        <v>370</v>
+        <v>382.64659033951483</v>
       </c>
       <c r="D78">
         <v>220</v>
@@ -2561,7 +2562,7 @@
         <v>HHL</v>
       </c>
       <c r="B79">
-        <v>384.59477978150807</v>
+        <v>384.79152232973877</v>
       </c>
       <c r="C79">
         <v>256</v>
@@ -2596,7 +2597,7 @@
         <v>SMHL</v>
       </c>
       <c r="B80">
-        <v>902.5209848631177</v>
+        <v>958.8610652386903</v>
       </c>
       <c r="C80">
         <v>456</v>
@@ -2625,7 +2626,7 @@
         <v>540</v>
       </c>
       <c r="C81">
-        <v>411.7260164897871</v>
+        <v>428.6299678587793</v>
       </c>
       <c r="D81">
         <v>329.1431186760137</v>
@@ -2654,7 +2655,7 @@
         <v>296</v>
       </c>
       <c r="D82">
-        <v>207.2</v>
+        <v>242.83192224239292</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2683,7 +2684,7 @@
         <v>MKHC</v>
       </c>
       <c r="B83">
-        <v>364.4902268645421</v>
+        <v>382.1845261738133</v>
       </c>
       <c r="C83">
         <v>264</v>
@@ -2709,7 +2710,7 @@
         <v>SGHC</v>
       </c>
       <c r="B84">
-        <v>392.47873331290407</v>
+        <v>379.3995610143177</v>
       </c>
       <c r="C84">
         <v>280</v>
@@ -2744,7 +2745,7 @@
         <v>PPL</v>
       </c>
       <c r="B85">
-        <v>446.5840940072558</v>
+        <v>428.4779619683956</v>
       </c>
       <c r="C85">
         <v>344</v>
@@ -2770,7 +2771,7 @@
         <v>TVCL</v>
       </c>
       <c r="B86">
-        <v>464.6155815030013</v>
+        <v>459.59717775009193</v>
       </c>
       <c r="C86">
         <v>352</v>
@@ -2796,7 +2797,7 @@
         <v>MEHL</v>
       </c>
       <c r="B87">
-        <v>398.7816694391115</v>
+        <v>381.3487473427239</v>
       </c>
       <c r="C87">
         <v>320</v>
@@ -2822,7 +2823,7 @@
         <v>MHCL</v>
       </c>
       <c r="B88">
-        <v>402.2003885913152</v>
+        <v>410.5304084785104</v>
       </c>
       <c r="C88">
         <v>288</v>
@@ -2848,7 +2849,7 @@
         <v>RFPL</v>
       </c>
       <c r="B89">
-        <v>459.165803769248</v>
+        <v>499.69914926781513</v>
       </c>
       <c r="C89">
         <v>280</v>
@@ -2883,7 +2884,7 @@
         <v>GVL</v>
       </c>
       <c r="B90">
-        <v>431.174542164373</v>
+        <v>500.314134425978</v>
       </c>
       <c r="C90">
         <v>240</v>
@@ -2921,7 +2922,7 @@
         <v>330.60952380952375</v>
       </c>
       <c r="C91">
-        <v>160</v>
+        <v>210.20332133137308</v>
       </c>
       <c r="D91">
         <v>112</v>
@@ -2953,7 +2954,7 @@
         <v>JOSHI</v>
       </c>
       <c r="B92">
-        <v>314.04772457596164</v>
+        <v>302.56523652525516</v>
       </c>
       <c r="C92">
         <v>200</v>
@@ -2988,7 +2989,7 @@
         <v>MKJC</v>
       </c>
       <c r="B93">
-        <v>489.92544456203115</v>
+        <v>516.1416079538136</v>
       </c>
       <c r="C93">
         <v>320</v>
@@ -3017,7 +3018,7 @@
         <v>363.61117991382713</v>
       </c>
       <c r="C94">
-        <v>304</v>
+        <v>276.9080740171388</v>
       </c>
       <c r="D94">
         <v>212.8</v>
@@ -3049,7 +3050,7 @@
         <v>NHDL</v>
       </c>
       <c r="B95">
-        <v>597.3022943360012</v>
+        <v>616.0763936476967</v>
       </c>
       <c r="C95">
         <v>320</v>
@@ -3075,7 +3076,7 @@
         <v>BNHC</v>
       </c>
       <c r="B96">
-        <v>477.8683713850471</v>
+        <v>481.1308952334565</v>
       </c>
       <c r="C96">
         <v>240</v>
@@ -3113,7 +3114,7 @@
         <v>495.8513322165452</v>
       </c>
       <c r="C97">
-        <v>320</v>
+        <v>356.1070519361727</v>
       </c>
       <c r="D97">
         <v>224</v>
@@ -3148,7 +3149,7 @@
         <v>357.92684500711425</v>
       </c>
       <c r="C98">
-        <v>260</v>
+        <v>304.9567442773857</v>
       </c>
       <c r="D98">
         <v>190</v>
@@ -3180,7 +3181,7 @@
         <v>UMRH</v>
       </c>
       <c r="B99">
-        <v>449.6520018876267</v>
+        <v>528.3777579762191</v>
       </c>
       <c r="C99">
         <v>320</v>
@@ -3206,7 +3207,7 @@
         <v>SMJC</v>
       </c>
       <c r="B100">
-        <v>398.7723570759719</v>
+        <v>544.3689281992501</v>
       </c>
       <c r="C100">
         <v>272</v>
@@ -3238,7 +3239,7 @@
         <v>278.85903563874103</v>
       </c>
       <c r="D101">
-        <v>184.8</v>
+        <v>222.93527765371473</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3267,7 +3268,7 @@
         <v>TAMOR</v>
       </c>
       <c r="B102">
-        <v>387.4552364472739</v>
+        <v>389.6608679419387</v>
       </c>
       <c r="C102">
         <v>320</v>
@@ -3293,7 +3294,7 @@
         <v>SPC</v>
       </c>
       <c r="B103">
-        <v>512.8079147123455</v>
+        <v>511.7583636142057</v>
       </c>
       <c r="C103">
         <v>266.4</v>
@@ -3331,7 +3332,7 @@
         <v>425.96328273483243</v>
       </c>
       <c r="C104">
-        <v>240</v>
+        <v>319.0570642002359</v>
       </c>
       <c r="D104">
         <v>168</v>
@@ -3354,7 +3355,7 @@
         <v>PHCL</v>
       </c>
       <c r="B105">
-        <v>428.0582063340357</v>
+        <v>417.09566630253124</v>
       </c>
       <c r="C105">
         <v>360</v>
@@ -3380,7 +3381,7 @@
         <v>RURU</v>
       </c>
       <c r="B106">
-        <v>676.5571365350434</v>
+        <v>684.3370731009527</v>
       </c>
       <c r="C106">
         <v>527.9158038625341</v>
@@ -3409,7 +3410,7 @@
         <v>300</v>
       </c>
       <c r="C107">
-        <v>222.30407197649527</v>
+        <v>224.63031902073456</v>
       </c>
       <c r="D107">
         <v>168</v>
@@ -3441,7 +3442,7 @@
         <v>UNHPL</v>
       </c>
       <c r="B108">
-        <v>278.2580497749246</v>
+        <v>309.0786783522084</v>
       </c>
       <c r="C108">
         <v>208</v>
@@ -3467,7 +3468,7 @@
         <v>KPCL</v>
       </c>
       <c r="B109">
-        <v>474.31795976948524</v>
+        <v>519.1102993551968</v>
       </c>
       <c r="C109">
         <v>328</v>
@@ -3493,7 +3494,7 @@
         <v>PPCL</v>
       </c>
       <c r="B110">
-        <v>295.58295573861045</v>
+        <v>299.8175460517249</v>
       </c>
       <c r="C110">
         <v>240</v>
@@ -3528,7 +3529,7 @@
         <v>HPPL</v>
       </c>
       <c r="B111">
-        <v>460.7243916261084</v>
+        <v>398.8533405966579</v>
       </c>
       <c r="C111">
         <v>320</v>
@@ -3554,7 +3555,7 @@
         <v>PMHPL</v>
       </c>
       <c r="B112">
-        <v>265.8259906011436</v>
+        <v>283.3451327643025</v>
       </c>
       <c r="C112">
         <v>170.4</v>
@@ -3580,7 +3581,7 @@
         <v>SPDL</v>
       </c>
       <c r="B113">
-        <v>326.5068945505848</v>
+        <v>340.94623843139647</v>
       </c>
       <c r="C113">
         <v>176</v>
@@ -3606,7 +3607,7 @@
         <v>UMHL</v>
       </c>
       <c r="B114">
-        <v>443.1810791902185</v>
+        <v>480.0048976789092</v>
       </c>
       <c r="C114">
         <v>256</v>
@@ -3632,7 +3633,7 @@
         <v>MHNL</v>
       </c>
       <c r="B115">
-        <v>244.71237691952058</v>
+        <v>246.4346482358764</v>
       </c>
       <c r="C115">
         <v>192</v>
@@ -3667,7 +3668,7 @@
         <v>SSHL</v>
       </c>
       <c r="B116">
-        <v>170.66043318811762</v>
+        <v>168.70029975280545</v>
       </c>
       <c r="C116">
         <v>128</v>
@@ -3688,13 +3689,13 @@
         <v>1</v>
       </c>
       <c r="I116">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="J116" t="str">
         <v>2025-06-19</v>
       </c>
       <c r="K116">
-        <v>205.7</v>
+        <v>160.7</v>
       </c>
     </row>
     <row r="117">
@@ -3702,7 +3703,7 @@
         <v>NYADI</v>
       </c>
       <c r="B117">
-        <v>424.22393243685565</v>
+        <v>356.11356808395743</v>
       </c>
       <c r="C117">
         <v>232</v>
@@ -3728,7 +3729,7 @@
         <v>GHL</v>
       </c>
       <c r="B118">
-        <v>221.8490938958488</v>
+        <v>218.0714401927995</v>
       </c>
       <c r="C118">
         <v>183.6216</v>
@@ -3754,7 +3755,7 @@
         <v>GLH</v>
       </c>
       <c r="B119">
-        <v>243.08684598494307</v>
+        <v>241.9063081232254</v>
       </c>
       <c r="C119">
         <v>160</v>
@@ -3780,7 +3781,7 @@
         <v>RADHI</v>
       </c>
       <c r="B120">
-        <v>548.9677645916512</v>
+        <v>561.3006787396937</v>
       </c>
       <c r="C120">
         <v>208</v>
@@ -3806,7 +3807,7 @@
         <v>HURJA</v>
       </c>
       <c r="B121">
-        <v>223.74087333889926</v>
+        <v>222.859980234191</v>
       </c>
       <c r="C121">
         <v>171.2</v>
@@ -3841,7 +3842,7 @@
         <v>AKJCL</v>
       </c>
       <c r="B122">
-        <v>200.07243919087975</v>
+        <v>200.9116692018261</v>
       </c>
       <c r="C122">
         <v>152</v>
@@ -3867,7 +3868,7 @@
         <v>LEC</v>
       </c>
       <c r="B123">
-        <v>200.2587672427286</v>
+        <v>209.41978215652446</v>
       </c>
       <c r="C123">
         <v>152</v>
@@ -3893,7 +3894,7 @@
         <v>UPCL</v>
       </c>
       <c r="B124">
-        <v>294.31311147373026</v>
+        <v>353.46725207090367</v>
       </c>
       <c r="C124">
         <v>160</v>
@@ -3919,7 +3920,7 @@
         <v>RIDI</v>
       </c>
       <c r="B125">
-        <v>230.95960698052053</v>
+        <v>231.48553226529074</v>
       </c>
       <c r="C125">
         <v>169.94110480498733</v>
@@ -3945,7 +3946,7 @@
         <v>NHPC</v>
       </c>
       <c r="B126">
-        <v>211.46869779565458</v>
+        <v>208.96549122786547</v>
       </c>
       <c r="C126">
         <v>175.98319231991923</v>
@@ -3971,7 +3972,7 @@
         <v>MEN</v>
       </c>
       <c r="B127">
-        <v>523.6888934202656</v>
+        <v>580.9634954506929</v>
       </c>
       <c r="C127">
         <v>436</v>
@@ -4000,7 +4001,7 @@
         <v>195</v>
       </c>
       <c r="C128">
-        <v>164.11626073340676</v>
+        <v>164.25806718178285</v>
       </c>
       <c r="D128">
         <v>109.2</v>
@@ -4023,7 +4024,7 @@
         <v>SHEL</v>
       </c>
       <c r="B129">
-        <v>241.2945612221098</v>
+        <v>257.81016527505807</v>
       </c>
       <c r="C129">
         <v>180</v>
@@ -4049,7 +4050,7 @@
         <v>BPCL</v>
       </c>
       <c r="B130">
-        <v>410.8782422516852</v>
+        <v>785.7326527737922</v>
       </c>
       <c r="C130">
         <v>300.37949836496045</v>
@@ -4078,7 +4079,7 @@
         <v>305.53395596331023</v>
       </c>
       <c r="C131">
-        <v>260.10382031985347</v>
+        <v>260.91436396465946</v>
       </c>
       <c r="D131">
         <v>168</v>
@@ -4110,7 +4111,7 @@
         <v>NGPL</v>
       </c>
       <c r="B132">
-        <v>295.32060261844265</v>
+        <v>353.34295255724993</v>
       </c>
       <c r="C132">
         <v>203.2</v>
@@ -4145,7 +4146,7 @@
         <v>SHPC</v>
       </c>
       <c r="B133">
-        <v>507.8526959694666</v>
+        <v>519.7670655459881</v>
       </c>
       <c r="C133">
         <v>352</v>
@@ -4171,7 +4172,7 @@
         <v>SAHAS</v>
       </c>
       <c r="B134">
-        <v>429.2058302817857</v>
+        <v>545.9895458813357</v>
       </c>
       <c r="C134">
         <v>369.6</v>
@@ -4197,7 +4198,7 @@
         <v>AHPC</v>
       </c>
       <c r="B135">
-        <v>258.57739327544294</v>
+        <v>262.4629600126049</v>
       </c>
       <c r="C135">
         <v>201.63</v>
@@ -4223,7 +4224,7 @@
         <v>AKPL</v>
       </c>
       <c r="B136">
-        <v>198.49835399744907</v>
+        <v>234.9298147329126</v>
       </c>
       <c r="C136">
         <v>168.30148812127038</v>
@@ -4258,7 +4259,7 @@
         <v>MBJC</v>
       </c>
       <c r="B137">
-        <v>313.4519085462431</v>
+        <v>313.4396828963335</v>
       </c>
       <c r="C137">
         <v>264</v>
@@ -4293,7 +4294,7 @@
         <v>API</v>
       </c>
       <c r="B138">
-        <v>273.4143299581017</v>
+        <v>275.8972163697553</v>
       </c>
       <c r="C138">
         <v>182.4</v>
@@ -4322,7 +4323,7 @@
         <v>368.3330169083814</v>
       </c>
       <c r="C139">
-        <v>268.538185813698</v>
+        <v>265.4453919402269</v>
       </c>
       <c r="D139">
         <v>196</v>
@@ -4348,7 +4349,7 @@
         <v>500</v>
       </c>
       <c r="C140">
-        <v>434.3682869620645</v>
+        <v>434.0087811044336</v>
       </c>
       <c r="D140">
         <v>280</v>
@@ -4374,7 +4375,7 @@
         <v>200</v>
       </c>
       <c r="C141">
-        <v>157.82215604853607</v>
+        <v>158.1985734371252</v>
       </c>
       <c r="D141">
         <v>112</v>
@@ -4406,7 +4407,7 @@
         <v>RBCL</v>
       </c>
       <c r="B142">
-        <v>13146.787013025432</v>
+        <v>13125.126017805915</v>
       </c>
       <c r="C142">
         <v>10400</v>
@@ -4435,7 +4436,7 @@
         <v>936</v>
       </c>
       <c r="C143">
-        <v>780.1045884767184</v>
+        <v>777.9602800191753</v>
       </c>
       <c r="D143">
         <v>524.16</v>
@@ -4464,7 +4465,7 @@
         <v>757.392248363732</v>
       </c>
       <c r="D144">
-        <v>532.56</v>
+        <v>580.7597366877586</v>
       </c>
       <c r="E144">
         <v>1160</v>
@@ -4487,7 +4488,7 @@
         <v>700</v>
       </c>
       <c r="C145">
-        <v>528.3380057432223</v>
+        <v>541.6031765266507</v>
       </c>
       <c r="D145">
         <v>392</v>
@@ -4513,7 +4514,7 @@
         <v>773.2375069149816</v>
       </c>
       <c r="C146">
-        <v>608</v>
+        <v>685.4023166084321</v>
       </c>
       <c r="D146">
         <v>425.6</v>
@@ -4536,7 +4537,7 @@
         <v>UAIL</v>
       </c>
       <c r="B147">
-        <v>602.7215874359445</v>
+        <v>553.3059042203563</v>
       </c>
       <c r="C147">
         <v>496</v>
@@ -4562,7 +4563,7 @@
         <v>HEI</v>
       </c>
       <c r="B148">
-        <v>587.5064093669317</v>
+        <v>576.8110568340094</v>
       </c>
       <c r="C148">
         <v>496</v>
@@ -4597,7 +4598,7 @@
         <v>NLG</v>
       </c>
       <c r="B149">
-        <v>850</v>
+        <v>811.853149718722</v>
       </c>
       <c r="C149">
         <v>749.8632587340362</v>
@@ -4623,7 +4624,7 @@
         <v>SALICO</v>
       </c>
       <c r="B150">
-        <v>705.0950630221404</v>
+        <v>697.4329266665889</v>
       </c>
       <c r="C150">
         <v>544</v>
@@ -4649,7 +4650,7 @@
         <v>SPIL</v>
       </c>
       <c r="B151">
-        <v>803.4373317988402</v>
+        <v>802.2578268139994</v>
       </c>
       <c r="C151">
         <v>656</v>
@@ -4675,7 +4676,7 @@
         <v>SICL</v>
       </c>
       <c r="B152">
-        <v>686.0460371270732</v>
+        <v>733.9148011829889</v>
       </c>
       <c r="C152">
         <v>592</v>
@@ -4701,7 +4702,7 @@
         <v>IGI</v>
       </c>
       <c r="B153">
-        <v>566.5934791718263</v>
+        <v>559.6640089725342</v>
       </c>
       <c r="C153">
         <v>456</v>
@@ -4727,7 +4728,7 @@
         <v>NFS</v>
       </c>
       <c r="B154">
-        <v>517.19015033142</v>
+        <v>665.628404974</v>
       </c>
       <c r="C154">
         <v>400</v>
@@ -4762,7 +4763,7 @@
         <v>MPFL</v>
       </c>
       <c r="B155">
-        <v>600</v>
+        <v>555.4466517850489</v>
       </c>
       <c r="C155">
         <v>440.64510309030976</v>
@@ -4800,7 +4801,7 @@
         <v>500</v>
       </c>
       <c r="C156">
-        <v>444.0594826533521</v>
+        <v>404.45600474050764</v>
       </c>
       <c r="D156">
         <v>346.62677234344284</v>
@@ -4823,7 +4824,7 @@
         <v>JFL</v>
       </c>
       <c r="B157">
-        <v>500</v>
+        <v>472.0305452511782</v>
       </c>
       <c r="C157">
         <v>423.9</v>
@@ -4861,7 +4862,7 @@
         <v>570</v>
       </c>
       <c r="C158">
-        <v>420.9238124482119</v>
+        <v>466.00031891923817</v>
       </c>
       <c r="D158">
         <v>319.20000000000005</v>
@@ -4896,7 +4897,7 @@
         <v>520</v>
       </c>
       <c r="C159">
-        <v>409.60479298300686</v>
+        <v>412.2743002017796</v>
       </c>
       <c r="D159">
         <v>345.52649001551896</v>
@@ -4919,7 +4920,7 @@
         <v>GUFL</v>
       </c>
       <c r="B160">
-        <v>531.1262487793839</v>
+        <v>541.9148730134851</v>
       </c>
       <c r="C160">
         <v>440</v>
@@ -4945,7 +4946,7 @@
         <v>PFL</v>
       </c>
       <c r="B161">
-        <v>364.58101259485466</v>
+        <v>337.73503995713867</v>
       </c>
       <c r="C161">
         <v>264</v>
@@ -4974,7 +4975,7 @@
         <v>500</v>
       </c>
       <c r="C162">
-        <v>426.84384399879775</v>
+        <v>427.8618578032756</v>
       </c>
       <c r="D162">
         <v>280</v>
@@ -5000,7 +5001,7 @@
         <v>650</v>
       </c>
       <c r="C163">
-        <v>511.039377938625</v>
+        <v>512.4356932754627</v>
       </c>
       <c r="D163">
         <v>364</v>
@@ -5023,7 +5024,7 @@
         <v>GMFIL</v>
       </c>
       <c r="B164">
-        <v>422.4302217218624</v>
+        <v>444.7858141377678</v>
       </c>
       <c r="C164">
         <v>387.95470238491527</v>
@@ -5058,7 +5059,7 @@
         <v>SIFC</v>
       </c>
       <c r="B165">
-        <v>459.71650455759476</v>
+        <v>475.61444866489285</v>
       </c>
       <c r="C165">
         <v>362.93920890896163</v>
@@ -5096,7 +5097,7 @@
         <v>500</v>
       </c>
       <c r="C166">
-        <v>413.1315213295588</v>
+        <v>444.14221142092396</v>
       </c>
       <c r="D166">
         <v>280</v>
@@ -5131,7 +5132,7 @@
         <v>620</v>
       </c>
       <c r="C167">
-        <v>520.9306831130261</v>
+        <v>527.1915739006142</v>
       </c>
       <c r="D167">
         <v>347.20000000000005</v>
@@ -5157,7 +5158,7 @@
         <v>610</v>
       </c>
       <c r="C168">
-        <v>510.5059981531415</v>
+        <v>511.6963235013855</v>
       </c>
       <c r="D168">
         <v>341.6</v>
@@ -5180,7 +5181,7 @@
         <v>NWCL</v>
       </c>
       <c r="B169">
-        <v>902.881868892894</v>
+        <v>895.0287447426648</v>
       </c>
       <c r="C169">
         <v>719.558285478251</v>
@@ -5206,7 +5207,7 @@
         <v>MKCL</v>
       </c>
       <c r="B170">
-        <v>1384.2846195873826</v>
+        <v>1470.1984877531431</v>
       </c>
       <c r="C170">
         <v>1058.1578</v>
@@ -5232,7 +5233,7 @@
         <v>NTC</v>
       </c>
       <c r="B171">
-        <v>873.2190381644542</v>
+        <v>871.103945058989</v>
       </c>
       <c r="C171">
         <v>720</v>
@@ -5258,7 +5259,7 @@
         <v>NRIC</v>
       </c>
       <c r="B172">
-        <v>1212.3585661864404</v>
+        <v>1258.2134043261062</v>
       </c>
       <c r="C172">
         <v>640</v>
@@ -5284,7 +5285,7 @@
         <v>HRL</v>
       </c>
       <c r="B173">
-        <v>846.9175081353427</v>
+        <v>867.4260980725301</v>
       </c>
       <c r="C173">
         <v>624</v>
@@ -5310,7 +5311,7 @@
         <v>NRM</v>
       </c>
       <c r="B174">
-        <v>410.70977393346783</v>
+        <v>420.8095289503365</v>
       </c>
       <c r="C174">
         <v>336</v>
@@ -5336,7 +5337,7 @@
         <v>SHL</v>
       </c>
       <c r="B175">
-        <v>467.4464944252661</v>
+        <v>488.3256079454793</v>
       </c>
       <c r="C175">
         <v>368</v>
@@ -5362,7 +5363,7 @@
         <v>CGH</v>
       </c>
       <c r="B176">
-        <v>782.7825788127566</v>
+        <v>891.4660576674783</v>
       </c>
       <c r="C176">
         <v>696</v>
@@ -5391,7 +5392,7 @@
         <v>1020</v>
       </c>
       <c r="C177">
-        <v>750.2452256399002</v>
+        <v>754.3704025766798</v>
       </c>
       <c r="D177">
         <v>571.2</v>
@@ -5417,7 +5418,7 @@
         <v>845</v>
       </c>
       <c r="C178">
-        <v>752.95698826866</v>
+        <v>754.7646274057751</v>
       </c>
       <c r="D178">
         <v>473.20000000000005</v>
@@ -5443,7 +5444,7 @@
         <v>860</v>
       </c>
       <c r="C179">
-        <v>782.6765153213245</v>
+        <v>809.9886814826644</v>
       </c>
       <c r="D179">
         <v>583.5232936081426</v>
@@ -5466,7 +5467,7 @@
         <v>KDL</v>
       </c>
       <c r="B180">
-        <v>1059.3880375861493</v>
+        <v>1061.4170787354028</v>
       </c>
       <c r="C180">
         <v>778.0711837659542</v>
@@ -5492,7 +5493,7 @@
         <v>BNL</v>
       </c>
       <c r="B181">
-        <v>16314.342817201767</v>
+        <v>15975.63594786185</v>
       </c>
       <c r="C181">
         <v>12000</v>
@@ -5518,7 +5519,7 @@
         <v>BNT</v>
       </c>
       <c r="B182">
-        <v>13315.416228239274</v>
+        <v>13098.495723192724</v>
       </c>
       <c r="C182">
         <v>10400</v>
@@ -5544,7 +5545,7 @@
         <v>GCIL</v>
       </c>
       <c r="B183">
-        <v>480.0651222765346</v>
+        <v>481.08107219616863</v>
       </c>
       <c r="C183">
         <v>400</v>
@@ -5570,7 +5571,7 @@
         <v>HDL</v>
       </c>
       <c r="B184">
-        <v>1177.3847878354743</v>
+        <v>1237.4544716130576</v>
       </c>
       <c r="C184">
         <v>912</v>
@@ -5596,7 +5597,7 @@
         <v>SARBTM</v>
       </c>
       <c r="B185">
-        <v>772.5392178663013</v>
+        <v>796.7119946443875</v>
       </c>
       <c r="C185">
         <v>560</v>
@@ -5622,7 +5623,7 @@
         <v>SHIVM</v>
       </c>
       <c r="B186">
-        <v>499.9972644128149</v>
+        <v>537.2458528366623</v>
       </c>
       <c r="C186">
         <v>400</v>
@@ -5648,7 +5649,7 @@
         <v>SONA</v>
       </c>
       <c r="B187">
-        <v>449.4682374117472</v>
+        <v>449.6021181005955</v>
       </c>
       <c r="C187">
         <v>368</v>
@@ -5700,7 +5701,7 @@
         <v>UNL</v>
       </c>
       <c r="B189">
-        <v>44356.41187602848</v>
+        <v>45765.924048481436</v>
       </c>
       <c r="C189">
         <v>35200</v>
@@ -5726,7 +5727,7 @@
         <v>NABBC</v>
       </c>
       <c r="B190">
-        <v>1392.0155460048393</v>
+        <v>1533.4167072783328</v>
       </c>
       <c r="C190">
         <v>504</v>
@@ -5752,7 +5753,7 @@
         <v>CORBL</v>
       </c>
       <c r="B191">
-        <v>1874.3312477116674</v>
+        <v>1542.1054130325233</v>
       </c>
       <c r="C191">
         <v>496</v>
@@ -5778,7 +5779,7 @@
         <v>GRDBL</v>
       </c>
       <c r="B192">
-        <v>985.6824728371614</v>
+        <v>1063.0777685599792</v>
       </c>
       <c r="C192">
         <v>480</v>
@@ -5807,7 +5808,7 @@
         <v>942.282655316135</v>
       </c>
       <c r="C193">
-        <v>774.1682053986337</v>
+        <v>707.7743916312899</v>
       </c>
       <c r="D193">
         <v>336</v>
@@ -5830,7 +5831,7 @@
         <v>SAPDBL</v>
       </c>
       <c r="B194">
-        <v>781.5443194253178</v>
+        <v>711.5496019578479</v>
       </c>
       <c r="C194">
         <v>416</v>
@@ -5859,7 +5860,7 @@
         <v>540</v>
       </c>
       <c r="C195">
-        <v>477.8632320332341</v>
+        <v>485.0778063426365</v>
       </c>
       <c r="D195">
         <v>302.4</v>
@@ -5885,7 +5886,7 @@
         <v>515.9985125561868</v>
       </c>
       <c r="C196">
-        <v>448.85333391041166</v>
+        <v>476.5580858629322</v>
       </c>
       <c r="D196">
         <v>296.8</v>
@@ -5908,7 +5909,7 @@
         <v>KSBBL</v>
       </c>
       <c r="B197">
-        <v>420</v>
+        <v>456.98488573806793</v>
       </c>
       <c r="C197">
         <v>367.95343622284753</v>
@@ -5934,7 +5935,7 @@
         <v>SADBL</v>
       </c>
       <c r="B198">
-        <v>380</v>
+        <v>405.36652701495103</v>
       </c>
       <c r="C198">
         <v>311.9726617809088</v>
@@ -5960,7 +5961,7 @@
         <v>LBBL</v>
       </c>
       <c r="B199">
-        <v>430</v>
+        <v>460.8359153836781</v>
       </c>
       <c r="C199">
         <v>375.29788950607605</v>
@@ -5986,7 +5987,7 @@
         <v>MLBL</v>
       </c>
       <c r="B200">
-        <v>360</v>
+        <v>370.1065155845949</v>
       </c>
       <c r="C200">
         <v>288</v>
@@ -6012,7 +6013,7 @@
         <v>JBBL</v>
       </c>
       <c r="B201">
-        <v>340</v>
+        <v>331.90491615875277</v>
       </c>
       <c r="C201">
         <v>294.5427142041104</v>
@@ -6038,7 +6039,7 @@
         <v>SHINE</v>
       </c>
       <c r="B202">
-        <v>390.1847447516867</v>
+        <v>417.24079085506463</v>
       </c>
       <c r="C202">
         <v>320</v>
@@ -6064,7 +6065,7 @@
         <v>GBBL</v>
       </c>
       <c r="B203">
-        <v>380</v>
+        <v>396.82578499963415</v>
       </c>
       <c r="C203">
         <v>301.6</v>
@@ -6090,7 +6091,7 @@
         <v>MNBBL</v>
       </c>
       <c r="B204">
-        <v>353.45981765979144</v>
+        <v>380.63892992781143</v>
       </c>
       <c r="C204">
         <v>292.8</v>
@@ -6116,7 +6117,7 @@
         <v>SCB</v>
       </c>
       <c r="B205">
-        <v>595.917661975063</v>
+        <v>619.0282559139303</v>
       </c>
       <c r="C205">
         <v>561.5577860391528</v>
@@ -6142,7 +6143,7 @@
         <v>SBI</v>
       </c>
       <c r="B206">
-        <v>400</v>
+        <v>404.5609975625714</v>
       </c>
       <c r="C206">
         <v>298.08593710473826</v>
@@ -6168,7 +6169,7 @@
         <v>EBL</v>
       </c>
       <c r="B207">
-        <v>570.9544123362597</v>
+        <v>607.0187288585403</v>
       </c>
       <c r="C207">
         <v>456</v>
@@ -6194,7 +6195,7 @@
         <v>MBL</v>
       </c>
       <c r="B208">
-        <v>210</v>
+        <v>231.98665775568494</v>
       </c>
       <c r="C208">
         <v>172.46907273663663</v>
@@ -6220,7 +6221,7 @@
         <v>HBL</v>
       </c>
       <c r="B209">
-        <v>240</v>
+        <v>219.46610766248392</v>
       </c>
       <c r="C209">
         <v>182.94962829082743</v>
@@ -6246,7 +6247,7 @@
         <v>SANIMA</v>
       </c>
       <c r="B210">
-        <v>278.3895145267891</v>
+        <v>315.5870777244624</v>
       </c>
       <c r="C210">
         <v>250.81139431947796</v>
@@ -6272,7 +6273,7 @@
         <v>ADBL</v>
       </c>
       <c r="B211">
-        <v>260</v>
+        <v>284.4179505512248</v>
       </c>
       <c r="C211">
         <v>249.91610070413122</v>
@@ -6298,7 +6299,7 @@
         <v>SBL</v>
       </c>
       <c r="B212">
-        <v>249.60735793276606</v>
+        <v>303.4548470127139</v>
       </c>
       <c r="C212">
         <v>238.36411138851432</v>
@@ -6327,7 +6328,7 @@
         <v>200</v>
       </c>
       <c r="C213">
-        <v>161.7885742466249</v>
+        <v>162.73914547817867</v>
       </c>
       <c r="D213">
         <v>112</v>
@@ -6350,7 +6351,7 @@
         <v>NBL</v>
       </c>
       <c r="B214">
-        <v>209.89511887137832</v>
+        <v>253.72357068839227</v>
       </c>
       <c r="C214">
         <v>184</v>
@@ -6376,7 +6377,7 @@
         <v>CZBIL</v>
       </c>
       <c r="B215">
-        <v>200</v>
+        <v>201.76317594984408</v>
       </c>
       <c r="C215">
         <v>167.388618418563</v>
@@ -6402,7 +6403,7 @@
         <v>NICA</v>
       </c>
       <c r="B216">
-        <v>374.0805029424319</v>
+        <v>366.0881229198647</v>
       </c>
       <c r="C216">
         <v>276</v>
@@ -6431,7 +6432,7 @@
         <v>232</v>
       </c>
       <c r="C217">
-        <v>193.31527135529956</v>
+        <v>197.2357871197211</v>
       </c>
       <c r="D217">
         <v>129.92</v>
@@ -6457,7 +6458,7 @@
         <v>230</v>
       </c>
       <c r="C218">
-        <v>199.8254107146254</v>
+        <v>198.39352232843962</v>
       </c>
       <c r="D218">
         <v>128.8</v>
@@ -6480,7 +6481,7 @@
         <v>NABIL</v>
       </c>
       <c r="B219">
-        <v>422.61218520810223</v>
+        <v>423.441058630236</v>
       </c>
       <c r="C219">
         <v>336</v>
@@ -6506,7 +6507,7 @@
         <v>PRVU</v>
       </c>
       <c r="B220">
-        <v>200</v>
+        <v>184.13790000000003</v>
       </c>
       <c r="C220">
         <v>146.5129765544172</v>
@@ -6532,7 +6533,7 @@
         <v>LSL</v>
       </c>
       <c r="B221">
-        <v>200</v>
+        <v>222.4427121924689</v>
       </c>
       <c r="C221">
         <v>158.81838969549838</v>
@@ -6558,7 +6559,7 @@
         <v>KBL</v>
       </c>
       <c r="B222">
-        <v>172.2426</v>
+        <v>172.712</v>
       </c>
       <c r="C222">
         <v>144.4876678522174</v>
@@ -6587,7 +6588,7 @@
         <v>200</v>
       </c>
       <c r="C223">
-        <v>180.75486850805342</v>
+        <v>184.16995530515723</v>
       </c>
       <c r="D223">
         <v>112</v>
@@ -6610,7 +6611,7 @@
         <v>GMLI</v>
       </c>
       <c r="B224">
-        <v>1970.1848453554385</v>
+        <v>1626.9338999999998</v>
       </c>
       <c r="C224">
         <v>800</v>
@@ -6636,7 +6637,7 @@
         <v>PMLI</v>
       </c>
       <c r="B225">
-        <v>524.66638083459</v>
+        <v>493.15636500324933</v>
       </c>
       <c r="C225">
         <v>400</v>
@@ -6665,7 +6666,7 @@
         <v>600</v>
       </c>
       <c r="C226">
-        <v>465.39542623106655</v>
+        <v>472.1060896016734</v>
       </c>
       <c r="D226">
         <v>336</v>
@@ -6700,7 +6701,7 @@
         <v>600</v>
       </c>
       <c r="C227">
-        <v>455.8778448591848</v>
+        <v>464.38916430192614</v>
       </c>
       <c r="D227">
         <v>336</v>
@@ -6723,7 +6724,7 @@
         <v>RNLI</v>
       </c>
       <c r="B228">
-        <v>469.2332893982059</v>
+        <v>463.8131921951733</v>
       </c>
       <c r="C228">
         <v>408</v>
@@ -6749,7 +6750,7 @@
         <v>ILI</v>
       </c>
       <c r="B229">
-        <v>457.3184982209716</v>
+        <v>454.4898166850883</v>
       </c>
       <c r="C229">
         <v>368</v>
@@ -6778,7 +6779,7 @@
         <v>1082.9308288310187</v>
       </c>
       <c r="C230">
-        <v>800</v>
+        <v>883.5454503546979</v>
       </c>
       <c r="D230">
         <v>560</v>
@@ -6804,7 +6805,7 @@
         <v>700</v>
       </c>
       <c r="C231">
-        <v>573.4644913204136</v>
+        <v>492.1587515942547</v>
       </c>
       <c r="D231">
         <v>392</v>
@@ -6827,7 +6828,7 @@
         <v>NLICL</v>
       </c>
       <c r="B232">
-        <v>578.3175929932363</v>
+        <v>585.154309716405</v>
       </c>
       <c r="C232">
         <v>448</v>
@@ -6853,7 +6854,7 @@
         <v>SRLI</v>
       </c>
       <c r="B233">
-        <v>429.0898467306906</v>
+        <v>425.11961833297966</v>
       </c>
       <c r="C233">
         <v>288</v>
@@ -6888,7 +6889,7 @@
         <v>SJLIC</v>
       </c>
       <c r="B234">
-        <v>424.294033684713</v>
+        <v>426.2879305078672</v>
       </c>
       <c r="C234">
         <v>320</v>
@@ -6917,7 +6918,7 @@
         <v>690</v>
       </c>
       <c r="C235">
-        <v>595.9287746103736</v>
+        <v>598.2645897262158</v>
       </c>
       <c r="D235">
         <v>386.4</v>
@@ -6940,7 +6941,7 @@
         <v>HLI</v>
       </c>
       <c r="B236">
-        <v>392.4056231405952</v>
+        <v>391.46769251676835</v>
       </c>
       <c r="C236">
         <v>312</v>
@@ -6969,7 +6970,7 @@
         <v>1039.7272135496446</v>
       </c>
       <c r="C237">
-        <v>800</v>
+        <v>893.651760452362</v>
       </c>
       <c r="D237">
         <v>560</v>
@@ -6992,7 +6993,7 @@
         <v>ENL</v>
       </c>
       <c r="B238">
-        <v>1066.4561397296002</v>
+        <v>1062.5781535148476</v>
       </c>
       <c r="C238">
         <v>840</v>
@@ -7018,7 +7019,7 @@
         <v>CHDC</v>
       </c>
       <c r="B239">
-        <v>1992.1305470248794</v>
+        <v>2091.4393677349585</v>
       </c>
       <c r="C239">
         <v>960</v>
@@ -7044,7 +7045,7 @@
         <v>NRN</v>
       </c>
       <c r="B240">
-        <v>1518.753708723363</v>
+        <v>1712.9325013668079</v>
       </c>
       <c r="C240">
         <v>680</v>
@@ -7070,7 +7071,7 @@
         <v>CIT</v>
       </c>
       <c r="B241">
-        <v>1824.823460877193</v>
+        <v>1934.0066048773556</v>
       </c>
       <c r="C241">
         <v>1576</v>
@@ -7096,7 +7097,7 @@
         <v>HIDCL</v>
       </c>
       <c r="B242">
-        <v>261.515131267304</v>
+        <v>258.6740255093663</v>
       </c>
       <c r="C242">
         <v>188</v>
@@ -7122,7 +7123,7 @@
         <v>NIFRA</v>
       </c>
       <c r="B243">
-        <v>261.97725957684384</v>
+        <v>261.5752074654113</v>
       </c>
       <c r="C243">
         <v>197.62473858523174</v>
@@ -7148,7 +7149,7 @@
         <v>CREST</v>
       </c>
       <c r="B244">
-        <v>1200</v>
+        <v>1343.0779343315235</v>
       </c>
       <c r="C244">
         <v>1000</v>
@@ -7177,7 +7178,7 @@
         <v>1000</v>
       </c>
       <c r="C245">
-        <v>1500</v>
+        <v>1530.3193419650645</v>
       </c>
       <c r="D245">
         <v>1500</v>
@@ -7200,7 +7201,7 @@
         <v>OMPL</v>
       </c>
       <c r="B246">
-        <v>1500</v>
+        <v>1308.806082903429</v>
       </c>
       <c r="C246">
         <v>1500</v>
@@ -7314,7 +7315,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7324,6 +7325,394 @@
         <v>symbol</v>
       </c>
       <c r="B1" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" t="str">
+        <v>rightsPercentage</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PURE</v>
+      </c>
+      <c r="B2" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>OMPL</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>CREST</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>NMIC</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>GMLI</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>NWCL</v>
+      </c>
+      <c r="B7" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>MMKJL</v>
+      </c>
+      <c r="B8" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>CKHL</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>VLUCL</v>
+      </c>
+      <c r="B10" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>CHDC</v>
+      </c>
+      <c r="B11" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>NICLBSL</v>
+      </c>
+      <c r="B12" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>PPL</v>
+      </c>
+      <c r="B13" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>BARUN</v>
+      </c>
+      <c r="B14" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>ALICL</v>
+      </c>
+      <c r="B15" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>NABBC</v>
+      </c>
+      <c r="B16" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>RHGCL</v>
+      </c>
+      <c r="B17" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>TPC</v>
+      </c>
+      <c r="B18" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>CHL</v>
+      </c>
+      <c r="B19" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>SNLI</v>
+      </c>
+      <c r="B20" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>DORDI</v>
+      </c>
+      <c r="B21" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>NIL</v>
+      </c>
+      <c r="B22" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>BHL</v>
+      </c>
+      <c r="B23" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>LEC</v>
+      </c>
+      <c r="B24" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>LICN</v>
+      </c>
+      <c r="B25" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>NLG</v>
+      </c>
+      <c r="B26" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>HURJA</v>
+      </c>
+      <c r="B27" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>RIDI</v>
+      </c>
+      <c r="B28" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>GHL</v>
+      </c>
+      <c r="B29" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>MPFL</v>
+      </c>
+      <c r="B30" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>JOSHI</v>
+      </c>
+      <c r="B31" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>TTL</v>
+      </c>
+      <c r="B32" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>SANVI</v>
+      </c>
+      <c r="B33" t="str">
+        <v>ipo</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>RFPL</v>
+      </c>
+      <c r="B34" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>SSHL</v>
+      </c>
+      <c r="B35" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>CITY</v>
+      </c>
+      <c r="B36" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>KKHC</v>
+      </c>
+      <c r="B37" t="str">
+        <v>rights</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C37"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>symbol</v>
+      </c>
+      <c r="B1" t="str">
         <v>supportType</v>
       </c>
       <c r="C1" t="str">
@@ -8232,9 +8621,53 @@
         <v>2025-07-29T15:23:55.610Z</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>FOWAD</v>
+      </c>
+      <c r="B84" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2025-08-05T10:21:54.608Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>CHL</v>
+      </c>
+      <c r="B85" t="str">
+        <v>support2</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2025-08-05T10:21:54.610Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>NWCL</v>
+      </c>
+      <c r="B86" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2025-08-05T10:21:54.612Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>ENL</v>
+      </c>
+      <c r="B87" t="str">
+        <v>support1</v>
+      </c>
+      <c r="C87" t="str">
+        <v>2025-08-05T10:21:54.613Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C83"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C87"/>
   </ignoredErrors>
 </worksheet>
 </file>